--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H2">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N2">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q2">
-        <v>52.16978878535356</v>
+        <v>68.0612629388111</v>
       </c>
       <c r="R2">
-        <v>469.528099068182</v>
+        <v>612.5513664493</v>
       </c>
       <c r="S2">
-        <v>0.1573301859484763</v>
+        <v>0.1585468573851261</v>
       </c>
       <c r="T2">
-        <v>0.1573301859484763</v>
+        <v>0.1585468573851261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H3">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P3">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q3">
-        <v>5.96174611807289</v>
+        <v>7.100851512376889</v>
       </c>
       <c r="R3">
-        <v>53.655715062656</v>
+        <v>63.907663611392</v>
       </c>
       <c r="S3">
-        <v>0.01797903819762719</v>
+        <v>0.01654124010390339</v>
       </c>
       <c r="T3">
-        <v>0.01797903819762719</v>
+        <v>0.01654124010390339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H4">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N4">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q4">
-        <v>2.043051173348111</v>
+        <v>5.544018902287999</v>
       </c>
       <c r="R4">
-        <v>18.387460560133</v>
+        <v>49.896170120592</v>
       </c>
       <c r="S4">
-        <v>0.006161298109287191</v>
+        <v>0.01291464096150745</v>
       </c>
       <c r="T4">
-        <v>0.00616129810928719</v>
+        <v>0.01291464096150745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H5">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I5">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J5">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N5">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q5">
-        <v>25.02871663223089</v>
+        <v>17.38272707812489</v>
       </c>
       <c r="R5">
-        <v>225.258449690078</v>
+        <v>156.444543703124</v>
       </c>
       <c r="S5">
-        <v>0.07547994219417119</v>
+        <v>0.0404925890590325</v>
       </c>
       <c r="T5">
-        <v>0.07547994219417117</v>
+        <v>0.0404925890590325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H6">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I6">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J6">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N6">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q6">
-        <v>1.728946297438111</v>
+        <v>2.663749047960444</v>
       </c>
       <c r="R6">
-        <v>15.560516676943</v>
+        <v>23.973741431644</v>
       </c>
       <c r="S6">
-        <v>0.005214041475039186</v>
+        <v>0.006205130821572253</v>
       </c>
       <c r="T6">
-        <v>0.005214041475039185</v>
+        <v>0.006205130821572253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J7">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N7">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q7">
-        <v>111.8105129938818</v>
+        <v>122.4691240658556</v>
       </c>
       <c r="R7">
-        <v>1006.294616944936</v>
+        <v>1102.2221165927</v>
       </c>
       <c r="S7">
-        <v>0.3371907230197679</v>
+        <v>0.2852884872972017</v>
       </c>
       <c r="T7">
-        <v>0.3371907230197679</v>
+        <v>0.2852884872972017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>17.776364</v>
       </c>
       <c r="I8">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J8">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P8">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q8">
         <v>12.77723961167645</v>
@@ -948,10 +948,10 @@
         <v>114.995156505088</v>
       </c>
       <c r="S8">
-        <v>0.03853275105797744</v>
+        <v>0.02976423150286369</v>
       </c>
       <c r="T8">
-        <v>0.03853275105797744</v>
+        <v>0.02976423150286368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>17.776364</v>
       </c>
       <c r="I9">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J9">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N9">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q9">
-        <v>4.378675955631556</v>
+        <v>9.975882160431999</v>
       </c>
       <c r="R9">
-        <v>39.408083600684</v>
+        <v>89.782939443888</v>
       </c>
       <c r="S9">
-        <v>0.01320492028714212</v>
+        <v>0.02323854565559233</v>
       </c>
       <c r="T9">
-        <v>0.01320492028714212</v>
+        <v>0.02323854565559233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>17.776364</v>
       </c>
       <c r="I10">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J10">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N10">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q10">
-        <v>53.64165183306044</v>
+        <v>31.27839930104845</v>
       </c>
       <c r="R10">
-        <v>482.774866497544</v>
+        <v>281.505593709436</v>
       </c>
       <c r="S10">
-        <v>0.1617689328243583</v>
+        <v>0.07286217885314167</v>
       </c>
       <c r="T10">
-        <v>0.1617689328243583</v>
+        <v>0.07286217885314165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>17.776364</v>
       </c>
       <c r="I11">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J11">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N11">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q11">
-        <v>3.705485050951556</v>
+        <v>4.793137807746223</v>
       </c>
       <c r="R11">
-        <v>33.349365458564</v>
+        <v>43.13824026971601</v>
       </c>
       <c r="S11">
-        <v>0.01117475584373418</v>
+        <v>0.01116548391285657</v>
       </c>
       <c r="T11">
-        <v>0.01117475584373418</v>
+        <v>0.01116548391285657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H12">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I12">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J12">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N12">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q12">
-        <v>7.118685426538891</v>
+        <v>45.1909323673361</v>
       </c>
       <c r="R12">
-        <v>64.06816883885001</v>
+        <v>406.718391306025</v>
       </c>
       <c r="S12">
-        <v>0.02146805896558474</v>
+        <v>0.1052710455224191</v>
       </c>
       <c r="T12">
-        <v>0.02146805896558475</v>
+        <v>0.1052710455224191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H13">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I13">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J13">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.468992</v>
       </c>
       <c r="O13">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P13">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q13">
-        <v>0.8134937134222224</v>
+        <v>4.714783220152889</v>
       </c>
       <c r="R13">
-        <v>7.321443420800001</v>
+        <v>42.433048981376</v>
       </c>
       <c r="S13">
-        <v>0.002453280340605223</v>
+        <v>0.010982959036176</v>
       </c>
       <c r="T13">
-        <v>0.002453280340605223</v>
+        <v>0.01098295903617599</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H14">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I14">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J14">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N14">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q14">
-        <v>0.2787789437527778</v>
+        <v>3.681086310163999</v>
       </c>
       <c r="R14">
-        <v>2.509010493775</v>
+        <v>33.129776791476</v>
       </c>
       <c r="S14">
-        <v>0.0008407230330105907</v>
+        <v>0.00857499025201172</v>
       </c>
       <c r="T14">
-        <v>0.0008407230330105907</v>
+        <v>0.00857499025201172</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H15">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I15">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J15">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N15">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q15">
-        <v>3.415224874072223</v>
+        <v>11.54168479732189</v>
       </c>
       <c r="R15">
-        <v>30.73702386665</v>
+        <v>103.875163175897</v>
       </c>
       <c r="S15">
-        <v>0.01029940846999354</v>
+        <v>0.02688604023099305</v>
       </c>
       <c r="T15">
-        <v>0.01029940846999354</v>
+        <v>0.02688604023099305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H16">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I16">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J16">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N16">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O16">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P16">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q16">
-        <v>0.2359186245027778</v>
+        <v>1.768661024967444</v>
       </c>
       <c r="R16">
-        <v>2.123267620525</v>
+        <v>15.917949224707</v>
       </c>
       <c r="S16">
-        <v>0.0007114677273171414</v>
+        <v>0.004120047662651303</v>
       </c>
       <c r="T16">
-        <v>0.0007114677273171414</v>
+        <v>0.004120047662651303</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H17">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I17">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J17">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N17">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O17">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P17">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q17">
-        <v>16.80896628322511</v>
+        <v>24.17656765814166</v>
       </c>
       <c r="R17">
-        <v>151.280696549026</v>
+        <v>217.589108923275</v>
       </c>
       <c r="S17">
-        <v>0.05069136472494064</v>
+        <v>0.05631865556187689</v>
       </c>
       <c r="T17">
-        <v>0.05069136472494065</v>
+        <v>0.05631865556187689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H18">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I18">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J18">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.468992</v>
       </c>
       <c r="O18">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P18">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q18">
-        <v>1.920858639089778</v>
+        <v>2.522348390357333</v>
       </c>
       <c r="R18">
-        <v>17.287727751808</v>
+        <v>22.701135513216</v>
       </c>
       <c r="S18">
-        <v>0.005792797975704585</v>
+        <v>0.005875741842773573</v>
       </c>
       <c r="T18">
-        <v>0.005792797975704585</v>
+        <v>0.005875741842773572</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H19">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I19">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J19">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N19">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O19">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P19">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q19">
-        <v>0.6582656186132223</v>
+        <v>1.969333836924</v>
       </c>
       <c r="R19">
-        <v>5.924390567519001</v>
+        <v>17.724004532316</v>
       </c>
       <c r="S19">
-        <v>0.001985153756439637</v>
+        <v>0.004587509509883725</v>
       </c>
       <c r="T19">
-        <v>0.001985153756439637</v>
+        <v>0.004587509509883725</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H20">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I20">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J20">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N20">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O20">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P20">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q20">
-        <v>8.064185494683779</v>
+        <v>6.174652939736332</v>
       </c>
       <c r="R20">
-        <v>72.57766945215401</v>
+        <v>55.571876457627</v>
       </c>
       <c r="S20">
-        <v>0.02431943530808001</v>
+        <v>0.0143836857673233</v>
       </c>
       <c r="T20">
-        <v>0.02431943530808001</v>
+        <v>0.0143836857673233</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H21">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I21">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J21">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N21">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O21">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P21">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q21">
-        <v>0.5570618684832223</v>
+        <v>0.9462109032596667</v>
       </c>
       <c r="R21">
-        <v>5.013556816349</v>
+        <v>8.515898129337002</v>
       </c>
       <c r="S21">
-        <v>0.00167995020477975</v>
+        <v>0.002204172515432643</v>
       </c>
       <c r="T21">
-        <v>0.00167995020477975</v>
+        <v>0.002204172515432642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H22">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I22">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J22">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N22">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O22">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P22">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q22">
-        <v>11.088430866546</v>
+        <v>30.09414546423888</v>
       </c>
       <c r="R22">
-        <v>99.79587779891402</v>
+        <v>270.8473091781499</v>
       </c>
       <c r="S22">
-        <v>0.03343975374882636</v>
+        <v>0.07010349181053954</v>
       </c>
       <c r="T22">
-        <v>0.03343975374882637</v>
+        <v>0.07010349181053954</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H23">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I23">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J23">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.468992</v>
       </c>
       <c r="O23">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P23">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q23">
-        <v>1.267139683968</v>
+        <v>3.139731017415111</v>
       </c>
       <c r="R23">
-        <v>11.404257155712</v>
+        <v>28.257579156736</v>
       </c>
       <c r="S23">
-        <v>0.003821355745211455</v>
+        <v>0.007313917849178043</v>
       </c>
       <c r="T23">
-        <v>0.003821355745211454</v>
+        <v>0.007313917849178042</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H24">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I24">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J24">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N24">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O24">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P24">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q24">
-        <v>0.434240433399</v>
+        <v>2.451357851704</v>
       </c>
       <c r="R24">
-        <v>3.908163900591</v>
+        <v>22.062220665336</v>
       </c>
       <c r="S24">
-        <v>0.001309553473833344</v>
+        <v>0.005710371317432568</v>
       </c>
       <c r="T24">
-        <v>0.001309553473833344</v>
+        <v>0.005710371317432568</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H25">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I25">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J25">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N25">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O25">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P25">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q25">
-        <v>5.319730068234001</v>
+        <v>7.68599192354911</v>
       </c>
       <c r="R25">
-        <v>47.877570614106</v>
+        <v>69.17392731194198</v>
       </c>
       <c r="S25">
-        <v>0.01604288881203841</v>
+        <v>0.01790430874698457</v>
       </c>
       <c r="T25">
-        <v>0.01604288881203841</v>
+        <v>0.01790430874698456</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H26">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I26">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J26">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N26">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O26">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P26">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q26">
-        <v>0.3674789938290001</v>
+        <v>1.177810223733555</v>
       </c>
       <c r="R26">
-        <v>3.307310944461</v>
+        <v>10.600292013602</v>
       </c>
       <c r="S26">
-        <v>0.001108218756053446</v>
+        <v>0.002743676821526366</v>
       </c>
       <c r="T26">
-        <v>0.001108218756053446</v>
+        <v>0.002743676821526366</v>
       </c>
     </row>
   </sheetData>
